--- a/проданное.xlsx
+++ b/проданное.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t>Товар</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>сестра</t>
+  </si>
+  <si>
+    <t>Кулон Енот</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +395,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -422,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,6 +450,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -806,7 +818,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1521,7 +1533,15 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="B53" s="5"/>
+      <c r="A53" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="8">
+        <v>600</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="B54" s="5"/>
@@ -1532,7 +1552,7 @@
       </c>
       <c r="B56" s="1">
         <f>SUM(B2:B55)</f>
-        <v>34021</v>
+        <v>34621</v>
       </c>
     </row>
   </sheetData>

--- a/проданное.xlsx
+++ b/проданное.xlsx
@@ -818,7 +818,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1537,7 +1537,7 @@
         <v>94</v>
       </c>
       <c r="B53" s="8">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>91</v>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B56" s="1">
         <f>SUM(B2:B55)</f>
-        <v>34621</v>
+        <v>34671</v>
       </c>
     </row>
   </sheetData>
